--- a/data/trans_camb/IP1020-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP1020-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -901,22 +901,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,56; 10,56</t>
+          <t>0,07; 9,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 4,94</t>
+          <t>-2,34; 4,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 12,62</t>
+          <t>-0,05; 12,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,74; 7,19</t>
+          <t>0,75; 7,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -926,22 +926,22 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,37; 11,42</t>
+          <t>1,0; 11,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,24; 6,63</t>
+          <t>1,27; 6,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 2,58</t>
+          <t>-1,16; 2,59</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,43; 9,38</t>
+          <t>1,71; 9,69</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-36,53; —</t>
+          <t>-51,45; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>35,59; —</t>
+          <t>7,29; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>27,77; —</t>
+          <t>0,21; —</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 0,9</t>
+          <t>-0,98; 0,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 1,35</t>
+          <t>-0,67; 1,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,92; 3,88</t>
+          <t>0,7; 3,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,06; 2,76</t>
+          <t>-0,06; 2,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 2,02</t>
+          <t>-0,55; 1,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,76; 4,02</t>
+          <t>0,57; 4,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 1,42</t>
+          <t>-0,27; 1,47</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 1,33</t>
+          <t>-0,4; 1,29</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,15; 3,41</t>
+          <t>1,19; 3,44</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-73,68; 221,26</t>
+          <t>-74,21; 247,89</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-60,11; 271,85</t>
+          <t>-58,7; 318,74</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>52,94; 902,58</t>
+          <t>33,48; 885,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-12,01; 603,69</t>
+          <t>-17,4; 571,7</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-40,79; 405,2</t>
+          <t>-41,42; 430,32</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>41,8; 952,84</t>
+          <t>21,16; 869,64</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-21,63; 222,75</t>
+          <t>-22,65; 244,87</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-23,83; 208,76</t>
+          <t>-32,25; 212,26</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>77,59; 585,4</t>
+          <t>78,34; 579,59</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 1,88</t>
+          <t>-0,76; 1,88</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,69; 5,39</t>
+          <t>0,52; 5,12</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,54; 5,22</t>
+          <t>0,56; 5,31</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,38; 5,76</t>
+          <t>0,24; 5,71</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 1,3</t>
+          <t>-1,16; 1,52</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,07; 6,62</t>
+          <t>0,98; 6,8</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,16; 2,94</t>
+          <t>0,18; 2,85</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,05; 2,71</t>
+          <t>-0,05; 2,81</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,24; 4,95</t>
+          <t>1,33; 4,88</t>
         </is>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-54,14; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,22 +1464,22 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-7,35; —</t>
+          <t>-15,12; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-26,33; 1754,85</t>
+          <t>-26,74; 1508,75</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-29,98; 1364,05</t>
+          <t>-39,19; 1432,13</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>68,01; 2614,83</t>
+          <t>68,38; 2461,47</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 1,42</t>
+          <t>-0,38; 1,38</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 1,82</t>
+          <t>-0,02; 1,81</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,18; 3,98</t>
+          <t>1,15; 3,7</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,72; 3,03</t>
+          <t>0,82; 3,06</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 1,31</t>
+          <t>-0,28; 1,47</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,45; 4,22</t>
+          <t>1,47; 4,2</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,39; 1,84</t>
+          <t>0,43; 1,86</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,0; 1,3</t>
+          <t>0,07; 1,34</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,55; 3,47</t>
+          <t>1,74; 3,57</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-29,61; 264,6</t>
+          <t>-36,18; 269,11</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-17,79; 319,76</t>
+          <t>-10,19; 349,38</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>79,85; 774,92</t>
+          <t>78,22; 695,68</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>44,02; 707,57</t>
+          <t>48,02; 668,37</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-36,71; 296,54</t>
+          <t>-31,82; 362,54</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>100,67; 1040,0</t>
+          <t>99,04; 952,75</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>28,23; 297,7</t>
+          <t>34,73; 307,24</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 232,28</t>
+          <t>3,74; 236,45</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>123,24; 580,11</t>
+          <t>140,44; 580,07</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP1020-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP1020-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>2,89</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,98</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4,35</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4,43</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,57</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,29</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,74; 6,9</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,96; 9,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,39; 10,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,35; 4,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,16; 13,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,12; 6,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,15; 2,24</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,01; 9,1</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>279,2%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,15%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>284,28%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>468,48%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,2%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>562,92%</t>
         </is>
       </c>
     </row>
@@ -806,39 +806,39 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>-52,64; —</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-4,91; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,21; —</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,35</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,63</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,89</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,42</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,57</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,6</t>
+          <t>2,14</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,07; 9,82</t>
+          <t>-0,06; 2,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 4,24</t>
+          <t>-0,46; 2,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 12,09</t>
+          <t>0,39; 3,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,75; 7,55</t>
+          <t>-1,11; 0,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,68; 1,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 11,41</t>
+          <t>0,72; 3,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,27; 6,7</t>
+          <t>-0,25; 1,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 2,59</t>
+          <t>-0,36; 1,23</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,71; 9,69</t>
+          <t>1,1; 3,24</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>279,2%</t>
+          <t>131,99%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>24,15%</t>
+          <t>71,95%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>297,41%</t>
+          <t>210,44%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-8,58%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,44%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>232,55%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>468,48%</t>
+          <t>60,29%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>36,2%</t>
+          <t>52,02%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>604,56%</t>
+          <t>221,95%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-51,45; —</t>
+          <t>-16,85; 528,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,8; 427,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,06; 774,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,02; 203,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,54; 285,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,15; 716,3</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,29; —</t>
+          <t>-22,83; 245,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,12; 207,28</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,21; —</t>
+          <t>78,06; 536,58</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,22</t>
+          <t>3,3</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>2,7</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 0,99</t>
+          <t>0,34; 5,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 1,42</t>
+          <t>-1,45; 1,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,7; 3,74</t>
+          <t>0,82; 6,6</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 2,75</t>
+          <t>-0,76; 1,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 1,9</t>
+          <t>0,75; 5,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,57; 4,05</t>
+          <t>0,54; 5,23</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 1,47</t>
+          <t>0,08; 3,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 1,29</t>
+          <t>-0,06; 2,64</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,19; 3,44</t>
+          <t>1,14; 4,81</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-8,58%</t>
+          <t>339,46%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>31,44%</t>
+          <t>-2,08%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>235,67%</t>
+          <t>453,14%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>131,99%</t>
+          <t>98,58%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>71,95%</t>
+          <t>649,86%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>222,02%</t>
+          <t>598,73%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>60,29%</t>
+          <t>247,77%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>52,02%</t>
+          <t>223,71%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>229,17%</t>
+          <t>481,36%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-74,21; 247,89</t>
+          <t>-45,13; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-58,7; 318,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>33,48; 885,64</t>
+          <t>-6,26; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-17,4; 571,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-41,42; 430,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>21,16; 869,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-22,65; 244,87</t>
+          <t>-32,1; 1792,81</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-32,25; 212,26</t>
+          <t>-33,2; 1302,6</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>78,34; 579,59</t>
+          <t>48,7; 2749,3</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
+          <t>0,53</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>2,57</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0,51</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0,81</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>2,36</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1,13</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0,67</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>2,46</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>2,33</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>2,47</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-0,02</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>3,32</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>1,39</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>1,26</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>2,77</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 1,88</t>
+          <t>0,76; 3,04</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,52; 5,12</t>
+          <t>-0,29; 1,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,56; 5,31</t>
+          <t>1,37; 4,18</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,24; 5,71</t>
+          <t>-0,37; 1,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 1,52</t>
+          <t>-0,12; 1,9</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,98; 6,8</t>
+          <t>1,18; 3,68</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,18; 2,85</t>
+          <t>0,43; 1,84</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 2,81</t>
+          <t>0,07; 1,37</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,33; 4,88</t>
+          <t>1,63; 3,57</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>98,58%</t>
+          <t>226,84%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>649,86%</t>
+          <t>66,41%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>617,62%</t>
+          <t>325,18%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>339,46%</t>
+          <t>56,75%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-2,08%</t>
+          <t>90,84%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>456,31%</t>
+          <t>263,72%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>247,77%</t>
+          <t>134,23%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>223,71%</t>
+          <t>79,7%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>493,83%</t>
+          <t>291,42%</t>
         </is>
       </c>
     </row>
@@ -1439,282 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>48,72; 745,99</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,3; 324,19</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>89,39; 908,53</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,41; 259,29</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,51; 337,86</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-15,12; —</t>
+          <t>78,63; 721,88</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-26,74; 1508,75</t>
+          <t>34,69; 314,76</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-39,19; 1432,13</t>
+          <t>-2,34; 236,88</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>68,38; 2461,47</t>
+          <t>130,96; 627,13</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>0,51</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>0,81</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>2,41</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>1,79</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>0,53</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>2,69</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>1,13</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>0,67</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>2,54</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-0,38; 1,38</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-0,02; 1,81</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>1,15; 3,7</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>0,82; 3,06</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-0,28; 1,47</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>1,47; 4,2</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>0,43; 1,86</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>0,07; 1,34</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>1,74; 3,57</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>56,77%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>91,04%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>269,97%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>226,84%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>66,41%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>339,77%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>134,25%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>79,79%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>301,49%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-36,18; 269,11</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-10,19; 349,38</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>78,22; 695,68</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>48,02; 668,37</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-31,82; 362,54</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>99,04; 952,75</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>34,73; 307,24</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>3,74; 236,45</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>140,44; 580,07</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
